--- a/docs/SCRATCH應用競賽國中乙組動畫設計組決賽名冊.xlsx
+++ b/docs/SCRATCH應用競賽國中乙組動畫設計組決賽名冊.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="130">
   <si>
     <t>序</t>
   </si>
@@ -45,28 +45,34 @@
     <t>SCRATCH應用競賽國中乙組動畫設計組</t>
   </si>
   <si>
-    <t>大里區立人高中</t>
-  </si>
-  <si>
-    <t>吳庭瑄</t>
-  </si>
-  <si>
-    <t>黃月君</t>
-  </si>
-  <si>
-    <t>ygw8jk7</t>
-  </si>
-  <si>
-    <t>m84pe7</t>
-  </si>
-  <si>
-    <t>董俊沅</t>
-  </si>
-  <si>
-    <t>pe37m2</t>
-  </si>
-  <si>
-    <t>hp37h3</t>
+    <t>大里區大里高中</t>
+  </si>
+  <si>
+    <t>張彩嫺</t>
+  </si>
+  <si>
+    <t>吳秀玲</t>
+  </si>
+  <si>
+    <t>x77c7</t>
+  </si>
+  <si>
+    <t>xb22p7</t>
+  </si>
+  <si>
+    <t>太平區華盛頓中學</t>
+  </si>
+  <si>
+    <t>劉峻辰</t>
+  </si>
+  <si>
+    <t>林冠文</t>
+  </si>
+  <si>
+    <t>rs33xb3</t>
+  </si>
+  <si>
+    <t>pet85dx6</t>
   </si>
   <si>
     <t>北屯區大德國中</t>
@@ -78,10 +84,37 @@
     <t>賴佳賢</t>
   </si>
   <si>
-    <t>ncd91tv3</t>
-  </si>
-  <si>
-    <t>v79h8</t>
+    <t>pe36d5</t>
+  </si>
+  <si>
+    <t>pet59hp7</t>
+  </si>
+  <si>
+    <t>張偉哲</t>
+  </si>
+  <si>
+    <t>wh25p2</t>
+  </si>
+  <si>
+    <t>kfr43b1</t>
+  </si>
+  <si>
+    <t>彭詩釉</t>
+  </si>
+  <si>
+    <t>hpe2nc4</t>
+  </si>
+  <si>
+    <t>dx69v2</t>
+  </si>
+  <si>
+    <t>柯丞恩</t>
+  </si>
+  <si>
+    <t>et28p7</t>
+  </si>
+  <si>
+    <t>rs67my2</t>
   </si>
   <si>
     <t>北區立人國中</t>
@@ -93,142 +126,97 @@
     <t>魏金羊</t>
   </si>
   <si>
-    <t>kf30gw2</t>
-  </si>
-  <si>
-    <t>w40kf1</t>
+    <t>ygw51et6</t>
+  </si>
+  <si>
+    <t>p45c7</t>
+  </si>
+  <si>
+    <t>陳盈蓁</t>
+  </si>
+  <si>
+    <t>h51m2</t>
+  </si>
+  <si>
+    <t>gwh4dx6</t>
   </si>
   <si>
     <t>北區曉明女中</t>
   </si>
   <si>
-    <t>張家安</t>
+    <t>朱翊禎</t>
   </si>
   <si>
     <t>劉國聲</t>
   </si>
   <si>
-    <t>dxb82gw3</t>
-  </si>
-  <si>
-    <t>gw33yg7</t>
-  </si>
-  <si>
-    <t>謝昕樺</t>
-  </si>
-  <si>
-    <t>wh34fr3</t>
-  </si>
-  <si>
-    <t>ncd89tv7</t>
-  </si>
-  <si>
-    <t>洪若恩</t>
-  </si>
-  <si>
-    <t>gw17p9</t>
-  </si>
-  <si>
-    <t>kf30bj4</t>
-  </si>
-  <si>
-    <t>朱翊禎</t>
-  </si>
-  <si>
-    <t>cd34pe6</t>
-  </si>
-  <si>
-    <t>fr36sm5</t>
+    <t>f13kf2</t>
+  </si>
+  <si>
+    <t>jk68x9</t>
+  </si>
+  <si>
+    <t>王之賢</t>
+  </si>
+  <si>
+    <t>m28rs5</t>
+  </si>
+  <si>
+    <t>dx58b5</t>
   </si>
   <si>
     <t>外埔區外埔國中</t>
   </si>
   <si>
-    <t>王紹帆</t>
+    <t>余若水</t>
   </si>
   <si>
     <t>林麗貞</t>
   </si>
   <si>
-    <t>x10s2</t>
-  </si>
-  <si>
-    <t>ygw72xb9</t>
-  </si>
-  <si>
-    <t>唐欣妤</t>
-  </si>
-  <si>
-    <t>cd62k7</t>
-  </si>
-  <si>
-    <t>jk18f3</t>
-  </si>
-  <si>
-    <t>后里區后里國中</t>
-  </si>
-  <si>
-    <t>王思閔</t>
-  </si>
-  <si>
-    <t>劉怡君</t>
-  </si>
-  <si>
-    <t>xbj3v2</t>
-  </si>
-  <si>
-    <t>gwh26t6</t>
-  </si>
-  <si>
-    <t>劉永棋</t>
-  </si>
-  <si>
-    <t>bj55s5</t>
-  </si>
-  <si>
-    <t>sm13hp4</t>
-  </si>
-  <si>
-    <t>西屯區中山國中</t>
-  </si>
-  <si>
-    <t>李奕德</t>
-  </si>
-  <si>
-    <t>何孟杰</t>
-  </si>
-  <si>
-    <t>an12xb7</t>
-  </si>
-  <si>
-    <t>wh67g5</t>
-  </si>
-  <si>
-    <t>范凱程</t>
-  </si>
-  <si>
-    <t>jk98d7</t>
-  </si>
-  <si>
-    <t>m88dx3</t>
-  </si>
-  <si>
-    <t>黃彥程</t>
-  </si>
-  <si>
-    <t>v81k6</t>
-  </si>
-  <si>
-    <t>smy42my5</t>
-  </si>
-  <si>
-    <t>劉彥呈</t>
-  </si>
-  <si>
-    <t>xb82c3</t>
-  </si>
-  <si>
-    <t>xbj51hp7</t>
+    <t>ncd16d5</t>
+  </si>
+  <si>
+    <t>b62nc4</t>
+  </si>
+  <si>
+    <t>馬韻涵</t>
+  </si>
+  <si>
+    <t>hpe70y5</t>
+  </si>
+  <si>
+    <t>anc56h2</t>
+  </si>
+  <si>
+    <t>西屯區安和國中</t>
+  </si>
+  <si>
+    <t>歐祐嘉</t>
+  </si>
+  <si>
+    <t>郭炯彬</t>
+  </si>
+  <si>
+    <t>pe40k4</t>
+  </si>
+  <si>
+    <t>d37et5</t>
+  </si>
+  <si>
+    <t>西屯區至善國中</t>
+  </si>
+  <si>
+    <t>何綵綾</t>
+  </si>
+  <si>
+    <t>邱贊生</t>
+  </si>
+  <si>
+    <t>k17rs2</t>
+  </si>
+  <si>
+    <t>etv82sm7</t>
   </si>
   <si>
     <t>沙鹿區北勢國中</t>
@@ -240,163 +228,187 @@
     <t>杜建勳</t>
   </si>
   <si>
-    <t>d33k5</t>
-  </si>
-  <si>
-    <t>wh6r7</t>
-  </si>
-  <si>
-    <t>南屯區嶺東中學</t>
-  </si>
-  <si>
-    <t>陳詠晴</t>
-  </si>
-  <si>
-    <t>黃冠恆</t>
-  </si>
-  <si>
-    <t>tv46gw5</t>
-  </si>
-  <si>
-    <t>an95jk6</t>
-  </si>
-  <si>
-    <t>單薇庭</t>
-  </si>
-  <si>
-    <t>y14b4</t>
-  </si>
-  <si>
-    <t>y78dx2</t>
+    <t>ncd67e2</t>
+  </si>
+  <si>
+    <t>g42gw3</t>
   </si>
   <si>
     <t>南區四育國中</t>
   </si>
   <si>
-    <t>邱晏鈞</t>
+    <t>蔡家翔</t>
   </si>
   <si>
     <t>許秋蘭</t>
   </si>
   <si>
-    <t>ygw32cd7</t>
-  </si>
-  <si>
-    <t>hp57jk1</t>
-  </si>
-  <si>
-    <t>吳品翰</t>
-  </si>
-  <si>
-    <t>jk47p2</t>
-  </si>
-  <si>
-    <t>sm96dx6</t>
-  </si>
-  <si>
-    <t>張哲勳</t>
-  </si>
-  <si>
-    <t>wh33c4</t>
-  </si>
-  <si>
-    <t>cd58r3</t>
+    <t>wh79an2</t>
+  </si>
+  <si>
+    <t>s40nc6</t>
+  </si>
+  <si>
+    <t>李恩宇</t>
+  </si>
+  <si>
+    <t>xb34j8</t>
+  </si>
+  <si>
+    <t>kfr17h7</t>
   </si>
   <si>
     <t>烏日區烏日國中</t>
   </si>
   <si>
-    <t>蔡芸蓁</t>
+    <t>鄭珮妤</t>
   </si>
   <si>
     <t>張淑貞</t>
   </si>
   <si>
-    <t>nc83nc7</t>
-  </si>
-  <si>
-    <t>cd60v9</t>
-  </si>
-  <si>
-    <t>萬耘希</t>
-  </si>
-  <si>
-    <t>my43jk3</t>
-  </si>
-  <si>
-    <t>p62fr9</t>
+    <t>rsm3m1</t>
+  </si>
+  <si>
+    <t>ncd90pe7</t>
+  </si>
+  <si>
+    <t>張家綺</t>
+  </si>
+  <si>
+    <t>p73nc8</t>
+  </si>
+  <si>
+    <t>tv40j4</t>
+  </si>
+  <si>
+    <t>郭芸榕</t>
+  </si>
+  <si>
+    <t>hpe2c5</t>
+  </si>
+  <si>
+    <t>ygw16cd4</t>
+  </si>
+  <si>
+    <t>梧棲區梧棲國中</t>
+  </si>
+  <si>
+    <t>魏嘉儀</t>
+  </si>
+  <si>
+    <t>陳有量</t>
+  </si>
+  <si>
+    <t>hp74v7</t>
+  </si>
+  <si>
+    <t>tv77hp5</t>
   </si>
   <si>
     <t>清水區清泉國中</t>
   </si>
   <si>
-    <t>卓立凱</t>
+    <t>林承頡</t>
   </si>
   <si>
     <t>林清煙</t>
   </si>
   <si>
-    <t>rs49gw5</t>
-  </si>
-  <si>
-    <t>xb80w1</t>
+    <t>dx21h1</t>
+  </si>
+  <si>
+    <t>nc56a4</t>
+  </si>
+  <si>
+    <t>潭子區弘文高中</t>
+  </si>
+  <si>
+    <t>葉泓軒</t>
+  </si>
+  <si>
+    <t>張政豐</t>
+  </si>
+  <si>
+    <t>h25tv4</t>
+  </si>
+  <si>
+    <t>dx37s8</t>
+  </si>
+  <si>
+    <t>吳紀蓉</t>
+  </si>
+  <si>
+    <t>smy80sm7</t>
+  </si>
+  <si>
+    <t>v71j7</t>
+  </si>
+  <si>
+    <t>游景涵</t>
+  </si>
+  <si>
+    <t>cdx63bj3</t>
+  </si>
+  <si>
+    <t>cd14d4</t>
+  </si>
+  <si>
+    <t>胡竣傑</t>
+  </si>
+  <si>
+    <t>cd29kf4</t>
+  </si>
+  <si>
+    <t>w79v5</t>
   </si>
   <si>
     <t>龍井區四箴國中</t>
   </si>
   <si>
-    <t>林家安</t>
+    <t>黃粲凱</t>
   </si>
   <si>
     <t>林永森</t>
   </si>
   <si>
-    <t>hpe11p3</t>
-  </si>
-  <si>
-    <t>ygw20dx6</t>
-  </si>
-  <si>
-    <t>林昱愷</t>
-  </si>
-  <si>
-    <t>jkf98sm5</t>
-  </si>
-  <si>
-    <t>cd36sm5</t>
-  </si>
-  <si>
-    <t>張峻瑋</t>
-  </si>
-  <si>
-    <t>cd81wh1</t>
-  </si>
-  <si>
-    <t>bj22r4</t>
-  </si>
-  <si>
-    <t>王研</t>
-  </si>
-  <si>
-    <t>t62jk9</t>
-  </si>
-  <si>
-    <t>xbj17xb2</t>
+    <t>g34dx6</t>
+  </si>
+  <si>
+    <t>ygw40d2</t>
   </si>
   <si>
     <t>龍井區龍井國中</t>
   </si>
   <si>
-    <t>林微薏</t>
-  </si>
-  <si>
-    <t>陳殷諄</t>
-  </si>
-  <si>
-    <t>frs57m2</t>
-  </si>
-  <si>
-    <t>frs47r2</t>
+    <t>花立頴</t>
+  </si>
+  <si>
+    <t>梁永和</t>
+  </si>
+  <si>
+    <t>gw88d7</t>
+  </si>
+  <si>
+    <t>rs19kf6</t>
+  </si>
+  <si>
+    <t>王丞豪</t>
+  </si>
+  <si>
+    <t>t29jk7</t>
+  </si>
+  <si>
+    <t>bj41jk5</t>
+  </si>
+  <si>
+    <t>紀秉硯</t>
+  </si>
+  <si>
+    <t>xbj13hp2</t>
+  </si>
+  <si>
+    <t>nc85n7</t>
   </si>
 </sst>
 </file>
@@ -1398,10 +1410,11 @@
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1458,19 +1471,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1481,19 +1494,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1504,13 +1517,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>24</v>
@@ -1527,19 +1540,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1550,19 +1563,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1573,13 +1586,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>35</v>
@@ -1596,13 +1609,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>38</v>
@@ -1734,19 +1747,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1757,19 +1770,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1780,19 +1793,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1803,19 +1816,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1826,19 +1839,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1849,19 +1862,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1872,19 +1885,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1895,19 +1908,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1918,19 +1931,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1941,19 +1954,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1964,19 +1977,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1987,19 +2000,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="F26" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2010,19 +2023,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2033,19 +2046,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2056,19 +2069,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2079,19 +2092,19 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2102,19 +2115,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="F31" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
